--- a/data/Input_msr.xlsx
+++ b/data/Input_msr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sm/Documents/R Training/MFF/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FFC4C0-586B-2B48-80F1-5612330B03C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE650B4-B9FE-114A-9A7D-361E1E54E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15260" xr2:uid="{B18A23E4-D683-784D-92F2-4EEECF04B8BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="190">
   <si>
     <t>variable</t>
   </si>
@@ -479,10 +479,133 @@
     <t>Percentage of MFF players think venue is good (%)</t>
   </si>
   <si>
-    <t>prob contribution for ch1 to 6</t>
-  </si>
-  <si>
-    <t>trainer increment</t>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>ch12_moti_interest_trainer_attitude_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 1 to chapter 1,2 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>DW and IPM</t>
+  </si>
+  <si>
+    <t>ch12_material_time_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 2 to chapter 1,2 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch12_prior_knowledge_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 3 to chapter 1,2 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch34_moti_interest_trainer_attitude_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 1 to chapter 3,4 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch34_material_time_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 2 to chapter 3,4 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch34_prior_knowledge_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 3 to chapter 3,4 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch56_material_trainer_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 1 to chapter 5,6 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch56_moti_persist_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 2 to chapter 5,6 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch56_attitude_commu_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 3 to chapter 5,6 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch56_creati_interest_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 4 to chapter 5,6 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch56_time_prior_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 5 to chapter 5,6 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch56_facility_one</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 6 to chapter 5,6 of intervention 1 (%)</t>
+  </si>
+  <si>
+    <t>ch12_moti_interest_trainer_attitude_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 1 to chapter 1,2 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>ch12_commu_material_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 2 to chapter 1,2 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>ch12_convenience_facility_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 3 to chapter 1,2 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>ch12_prior_knowledge_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 4 to chapter 1,2 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>ch34_moti_interest_trainer_attitude_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 1 to chapter 3,4 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>ch34_commu_material_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 2 to chapter 3,4 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>ch34_convenience_facility_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 3 to chapter 3,4 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>ch34_prior_knowledge_two</t>
+  </si>
+  <si>
+    <t>Percent contribution of variable set 4 to chapter 3,4 of intervention 2 (%)</t>
   </si>
 </sst>
 </file>
@@ -524,9 +647,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37373ABE-B1E1-4D4C-A694-4B88772C80A7}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,10 +979,11 @@
     <col min="6" max="6" width="79.6640625" customWidth="1"/>
     <col min="7" max="7" width="45.1640625" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="72.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="72.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,10 +1009,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -901,11 +1031,14 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -921,8 +1054,11 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -938,8 +1074,11 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -955,8 +1094,11 @@
       <c r="H7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -972,8 +1114,11 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -989,8 +1134,11 @@
       <c r="H9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1006,8 +1154,11 @@
       <c r="H10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1023,8 +1174,11 @@
       <c r="H11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1040,8 +1194,11 @@
       <c r="H12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1057,8 +1214,11 @@
       <c r="H13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1074,8 +1234,11 @@
       <c r="H15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1091,8 +1254,11 @@
       <c r="H16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1108,8 +1274,11 @@
       <c r="H17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1125,8 +1294,11 @@
       <c r="H18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1142,8 +1314,11 @@
       <c r="H19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1159,11 +1334,14 @@
       <c r="H21" t="s">
         <v>64</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1179,11 +1357,14 @@
       <c r="H22" t="s">
         <v>64</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1199,11 +1380,14 @@
       <c r="H23" t="s">
         <v>64</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -1219,8 +1403,11 @@
       <c r="H25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1236,8 +1423,11 @@
       <c r="H26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1253,8 +1443,11 @@
       <c r="H27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -1270,11 +1463,14 @@
       <c r="H29" t="s">
         <v>64</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -1290,11 +1486,14 @@
       <c r="H30" t="s">
         <v>64</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1310,11 +1509,14 @@
       <c r="H31" t="s">
         <v>64</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -1330,11 +1532,14 @@
       <c r="H32" t="s">
         <v>64</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -1350,11 +1555,14 @@
       <c r="H33" t="s">
         <v>64</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -1370,11 +1578,14 @@
       <c r="H35" t="s">
         <v>96</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -1390,11 +1601,14 @@
       <c r="H37" t="s">
         <v>101</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -1404,8 +1618,11 @@
       <c r="F39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -1415,8 +1632,11 @@
       <c r="F40" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -1426,8 +1646,11 @@
       <c r="F41" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -1437,8 +1660,11 @@
       <c r="F42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -1448,8 +1674,11 @@
       <c r="F43" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -1459,8 +1688,11 @@
       <c r="F44" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>116</v>
       </c>
@@ -1473,13 +1705,16 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>119</v>
       </c>
@@ -1492,11 +1727,14 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
@@ -1509,11 +1747,14 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
@@ -1526,11 +1767,14 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -1540,8 +1784,11 @@
       <c r="F49" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -1551,8 +1798,11 @@
       <c r="F50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -1562,8 +1812,11 @@
       <c r="F51" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -1573,8 +1826,11 @@
       <c r="F52" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -1584,8 +1840,11 @@
       <c r="F53" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -1595,8 +1854,11 @@
       <c r="F54" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -1606,8 +1868,11 @@
       <c r="F55" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -1617,8 +1882,11 @@
       <c r="F56" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -1628,8 +1896,11 @@
       <c r="F57" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -1639,8 +1910,11 @@
       <c r="F58" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -1650,15 +1924,348 @@
       <c r="F59" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>153</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>155</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>157</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>161</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>167</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>169</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>171</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>175</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>177</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>179</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>181</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>183</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>187</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>189</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/Input_msr.xlsx
+++ b/data/Input_msr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sm/Documents/R Training/MFF/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE650B4-B9FE-114A-9A7D-361E1E54E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C4829-CC84-DD49-861E-D6BD66019B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15260" xr2:uid="{B18A23E4-D683-784D-92F2-4EEECF04B8BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="192">
   <si>
     <t>variable</t>
   </si>
@@ -392,9 +392,6 @@
     <t>Percentage of MFF players know nutrition requirement well (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">These may have values if good trainer after training. At the moment, they don't know/ understand just by looking at resources. </t>
-  </si>
-  <si>
     <t>percent_know_calculation</t>
   </si>
   <si>
@@ -606,6 +603,15 @@
   </si>
   <si>
     <t>Percent contribution of variable set 4 to chapter 3,4 of intervention 2 (%)</t>
+  </si>
+  <si>
+    <t>correction_factor</t>
+  </si>
+  <si>
+    <t>Percent variations between self-accessed and actual knowledge level (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The correction factor is to prevent overestimating the score at baseline. The probability of having knowledge for each chapter is self-reported by the MFF players. We do not do proper assessment for that. So, it is possible they may overestimate or underestimate thier knowledge. The correction factor is used to balance it. But here, the concern is for overestimation only. We set the ranges for correction factor after interviewing some MFF players who gave higher score in survey. </t>
   </si>
 </sst>
 </file>
@@ -630,7 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,10 +655,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,20 +973,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37373ABE-B1E1-4D4C-A694-4B88772C80A7}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="79.6640625" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="6" max="6" width="71.83203125" customWidth="1"/>
+    <col min="7" max="7" width="42.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="72.83203125" customWidth="1"/>
+    <col min="10" max="10" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1009,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1022,6 +1028,12 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -1045,6 +1057,12 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>18</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1065,6 +1083,12 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
@@ -1085,6 +1109,12 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
@@ -1105,6 +1135,12 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
@@ -1125,6 +1161,12 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
@@ -1145,6 +1187,12 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
       <c r="F10" t="s">
         <v>32</v>
       </c>
@@ -1165,6 +1213,12 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
@@ -1185,6 +1239,12 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
       <c r="F12" t="s">
         <v>38</v>
       </c>
@@ -1205,6 +1265,12 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>0.7</v>
+      </c>
       <c r="F13" t="s">
         <v>41</v>
       </c>
@@ -1215,44 +1281,53 @@
         <v>42</v>
       </c>
       <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1260,39 +1335,51 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1300,56 +1387,71 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>53</v>
       </c>
       <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
         <v>60</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>65</v>
+      <c r="I20">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
+      <c r="C22">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -1366,13 +1468,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
+      <c r="C23">
+        <v>0.7</v>
+      </c>
+      <c r="E23">
+        <v>0.9</v>
+      </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -1387,41 +1495,56 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.7</v>
+      </c>
+      <c r="E24">
+        <v>0.9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
         <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1429,59 +1552,74 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
       </c>
       <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <v>0.7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
         <v>79</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>83</v>
+      <c r="I28">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
+      <c r="C30">
+        <v>0.01</v>
+      </c>
+      <c r="E30">
+        <v>0.03</v>
+      </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>64</v>
@@ -1495,16 +1633,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
+      <c r="C31">
+        <v>0.01</v>
+      </c>
+      <c r="E31">
+        <v>0.03</v>
+      </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
         <v>64</v>
@@ -1518,13 +1662,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="E32">
+        <v>0.03</v>
+      </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
         <v>82</v>
@@ -1539,18 +1689,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+      <c r="E33">
+        <v>0.03</v>
+      </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>64</v>
@@ -1562,710 +1718,971 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <v>0.03</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>93</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0.3</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>94</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>95</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>96</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>98</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>99</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>100</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>101</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>103</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>104</v>
       </c>
-      <c r="F39" t="s">
+      <c r="C40">
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
         <v>105</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="I40" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I41">
+      <c r="I42" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>110</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>0.7</v>
+      </c>
+      <c r="E43">
+        <v>0.9</v>
+      </c>
+      <c r="F43" t="s">
         <v>111</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>112</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0.3</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44" t="s">
         <v>113</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>114</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.3</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45" t="s">
         <v>115</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>0.01</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>118</v>
       </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>0.01</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.01</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="I48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0.01</v>
+      </c>
+      <c r="E49">
+        <v>0.1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I49">
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
+    <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s">
-        <v>146</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>150</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>151</v>
+      <c r="I60" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
+      <c r="C62">
+        <v>0.1</v>
+      </c>
+      <c r="E62">
+        <v>0.2</v>
+      </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
+      <c r="C63">
+        <v>0.1</v>
+      </c>
+      <c r="E63">
+        <v>0.1</v>
+      </c>
       <c r="F63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="E64">
+        <v>0.7</v>
+      </c>
       <c r="F64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
+      <c r="C65">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>0.3</v>
+      </c>
       <c r="F65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
+      <c r="C66">
+        <v>0.1</v>
+      </c>
+      <c r="E66">
+        <v>0.2</v>
+      </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
+      <c r="C67">
+        <v>0.3</v>
+      </c>
+      <c r="E67">
+        <v>0.5</v>
+      </c>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
+      <c r="C68">
+        <v>0.1</v>
+      </c>
+      <c r="E68">
+        <v>0.3</v>
+      </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
+      <c r="C69">
+        <v>0.1</v>
+      </c>
+      <c r="E69">
+        <v>0.2</v>
+      </c>
       <c r="F69" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
+      <c r="C70">
+        <v>0.1</v>
+      </c>
+      <c r="E70">
+        <v>0.2</v>
+      </c>
       <c r="F70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
+      <c r="C71">
+        <v>0.1</v>
+      </c>
+      <c r="E71">
+        <v>0.2</v>
+      </c>
       <c r="F71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>0.01</v>
+      </c>
+      <c r="E72">
+        <v>0.05</v>
+      </c>
+      <c r="F72" t="s">
+        <v>170</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>0.01</v>
+      </c>
+      <c r="E73">
+        <v>0.05</v>
+      </c>
+      <c r="F73" t="s">
         <v>172</v>
       </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>173</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>151</v>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+      <c r="E75">
+        <v>0.1</v>
+      </c>
       <c r="F75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
       </c>
+      <c r="C76">
+        <v>0.05</v>
+      </c>
+      <c r="E76">
+        <v>0.1</v>
+      </c>
       <c r="F76" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
+      <c r="C77">
+        <v>0.1</v>
+      </c>
+      <c r="E77">
+        <v>0.2</v>
+      </c>
       <c r="F77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
+      <c r="C78">
+        <v>0.3</v>
+      </c>
+      <c r="E78">
+        <v>0.6</v>
+      </c>
       <c r="F78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
+      <c r="C79">
+        <v>0.1</v>
+      </c>
+      <c r="E79">
+        <v>0.2</v>
+      </c>
       <c r="F79" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
       </c>
+      <c r="C80">
+        <v>0.05</v>
+      </c>
+      <c r="E80">
+        <v>0.1</v>
+      </c>
       <c r="F80" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>0.05</v>
+      </c>
+      <c r="E81">
+        <v>0.1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>186</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>0.3</v>
+      </c>
+      <c r="E82">
+        <v>0.6</v>
+      </c>
+      <c r="F82" t="s">
         <v>188</v>
       </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>189</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>151</v>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
